--- a/List_from_Interplanetary shocks lacking type II radio bursts_paper.xlsx
+++ b/List_from_Interplanetary shocks lacking type II radio bursts_paper.xlsx
@@ -3852,19 +3852,21 @@
   <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="34"/>
-    <col min="3" max="3" width="9" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="14"/>
-    <col min="5" max="5" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="26"/>
-    <col min="8" max="10" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
